--- a/xlsx/劳动节_intext.xlsx
+++ b/xlsx/劳动节_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>劳动节</t>
   </si>
@@ -29,13 +29,13 @@
     <t>国际劳动节</t>
   </si>
   <si>
-    <t>政策_政策_美國_劳动节</t>
+    <t>政策_政策_美国_劳动节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>勞動階級</t>
+    <t>劳动阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%A4%E5%8B%9E%E6%84%9F%E8%AC%9D%E4%B9%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>勤勞感謝之日</t>
+    <t>勤劳感谢之日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%91%A8_(%E4%B8%AD%E5%9B%BD)</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E8%8B%B1%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>港英時期</t>
+    <t>港英时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%BB%E6%AC%8A%E7%A7%BB%E4%BA%A4</t>
   </si>
   <si>
-    <t>香港主權移交</t>
+    <t>香港主权移交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1998%E5%B9%B4</t>
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9B%9E%E6%AD%B8</t>
   </si>
   <si>
-    <t>澳門回歸</t>
+    <t>澳门回归</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>利益團體</t>
+    <t>利益团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%89%B9%E5%8D%80%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>澳門特區政府</t>
+    <t>澳门特区政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B7%E6%84%BF</t>
@@ -161,31 +161,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E4%BA%94%E4%B8%80%E9%81%8A%E8%A1%8C</t>
   </si>
   <si>
-    <t>澳門五一遊行</t>
+    <t>澳门五一游行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%9F%BA%E6%BA%96%E6%B3%95_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>勞動基準法 (中華民國)</t>
+    <t>劳动基准法 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82%E6%94%BF%E5%BA%9C%E5%8B%9E%E5%B7%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>臺北市政府勞工局</t>
+    <t>台北市政府劳工局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>中華郵政</t>
+    <t>中华邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>春節</t>
+    <t>春节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%96%B0%E5%B9%B4</t>
   </si>
   <si>
-    <t>臺灣新年</t>
+    <t>台湾新年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%B0%E5%B9%B4</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%96%B0%E5%B9%B4</t>
   </si>
   <si>
-    <t>朝鮮新年</t>
+    <t>朝鲜新年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%96%B0%E5%B9%B4</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E4%BA%94%E7%AF%80</t>
   </si>
   <si>
-    <t>破五節</t>
+    <t>破五节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%97%A5</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%AE%B5%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>元宵節 (華人)</t>
+    <t>元宵节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%BB%BF%E6%9C%88</t>
   </si>
   <si>
-    <t>大滿月</t>
+    <t>大满月</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E6%97%A5%E6%AD%A3%E6%9C%88</t>
@@ -293,25 +293,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%92%8C%E7%AF%80</t>
   </si>
   <si>
-    <t>中和節</t>
+    <t>中和节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B7%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>上巳節</t>
+    <t>上巳节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9B%E7%A5%AD</t>
   </si>
   <si>
-    <t>雛祭</t>
+    <t>雏祭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%B8%8A%E5%B7%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>朝鮮上巳節</t>
+    <t>朝鲜上巳节</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B5%9C%E4%B8%8B%E3%82%8A</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E6%B0%A3</t>
   </si>
   <si>
-    <t>節氣</t>
+    <t>节气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%98%A5</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%9A%E8%9F%84</t>
   </si>
   <si>
-    <t>驚蟄</t>
+    <t>惊蛰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%88%86</t>
@@ -365,37 +365,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E9%9B%A8</t>
   </si>
   <si>
-    <t>穀雨</t>
+    <t>谷雨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E5%8D%88%E7%AF%80</t>
   </si>
   <si>
-    <t>端午節</t>
+    <t>端午节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E5%8D%88%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>端午節 (華人)</t>
+    <t>端午节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%AB%AF%E5%8D%88%E7%AF%80</t>
   </si>
   <si>
-    <t>台灣端午節</t>
+    <t>台湾端午节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%AF%E5%8D%88%E7%AF%80_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>端午節 (日本)</t>
+    <t>端午节 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%92%E7%AB%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>日本兒童節</t>
+    <t>日本儿童节</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/%ED%95%9C%EA%B5%AD%EC%9D%98_%EB%8B%A8%EC%98%A4</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%BB%BF</t>
   </si>
   <si>
-    <t>小滿</t>
+    <t>小满</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E7%A7%8D</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%A4%95_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>七夕 (華人)</t>
+    <t>七夕 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E4%B8%83%E5%A4%95</t>
@@ -479,25 +479,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E7%AF%80%E8%88%87%E7%9B%82%E8%98%AD%E7%9B%86%E7%AF%80</t>
   </si>
   <si>
-    <t>中元節與盂蘭盆節</t>
+    <t>中元节与盂兰盆节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E7%AF%80%E8%88%87%E7%9B%82%E8%98%AD%E7%9B%86%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>中元節與盂蘭盆節 (華人)</t>
+    <t>中元节与盂兰盆节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%82%E8%98%AD%E7%9B%86%E7%AF%80_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>盂蘭盆節 (日本)</t>
+    <t>盂兰盆节 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%B8%AD%E5%85%83%E7%AF%80</t>
   </si>
   <si>
-    <t>朝鮮中元節</t>
+    <t>朝鲜中元节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%A7%8B%E8%8A%82</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%A7%8B%E7%AF%80_(%E8%8F%AF%E4%BA%BA)</t>
   </si>
   <si>
-    <t>中秋節 (華人)</t>
+    <t>中秋节 (华人)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%94%E5%A4%9C_(%E6%97%A5%E6%9C%AC)</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8B%E5%A4%95_(%E6%9C%9D%E9%AE%AE)</t>
   </si>
   <si>
-    <t>秋夕 (朝鮮)</t>
+    <t>秋夕 (朝鲜)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E9%98%B3%E8%8A%82</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%88%90%E7%AF%80</t>
   </si>
   <si>
-    <t>十成節</t>
+    <t>十成节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E7%A7%8B</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%95%E6%9A%91</t>
   </si>
   <si>
-    <t>處暑</t>
+    <t>处暑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%9C%B2</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%85%83%E7%AF%80</t>
   </si>
   <si>
-    <t>三元節</t>
+    <t>三元节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%85%83%E8%8A%82</t>
@@ -647,9 +647,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%85%83%E7%AF%80</t>
   </si>
   <si>
-    <t>下元節</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%97%A5</t>
   </si>
   <si>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%B2%B8_(%E7%AF%80%E6%97%A5)</t>
   </si>
   <si>
-    <t>彼岸 (節日)</t>
+    <t>彼岸 (节日)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E5%8D%8E%E5%9C%B0%E5%8C%BA</t>
@@ -677,43 +674,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%89%99</t>
   </si>
   <si>
-    <t>頭牙</t>
+    <t>头牙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BF%E7%AF%80</t>
   </si>
   <si>
-    <t>天穿節</t>
+    <t>天穿节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8A%AC%E9%A0%AD</t>
   </si>
   <si>
-    <t>龍抬頭</t>
+    <t>龙抬头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%9C%9D%E7%AF%80</t>
   </si>
   <si>
-    <t>花朝節</t>
+    <t>花朝节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E5%B8%9D%E8%AA%95</t>
   </si>
   <si>
-    <t>黃帝誕</t>
+    <t>黄帝诞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%B2%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>天貺節</t>
+    <t>天贶节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%A5%9E%E7%AF%80</t>
   </si>
   <si>
-    <t>財神節</t>
+    <t>财神节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E8%A1%A3%E8%8A%82</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B0%91%E6%97%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國民族列表</t>
+    <t>中国民族列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E5%8E%86%E6%96%B0%E5%B9%B4</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E9%BD%8B%E7%AF%80</t>
   </si>
   <si>
-    <t>開齋節</t>
+    <t>开斋节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%BC%E6%B0%B4%E8%8A%82</t>
@@ -821,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E7%AF%80</t>
   </si>
   <si>
-    <t>耶穌受難節</t>
+    <t>耶稣受难节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%80%B1%E5%85%AD</t>
   </si>
   <si>
-    <t>聖週六</t>
+    <t>圣周六</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82%E6%98%9F%E6%9C%9F%E4%B8%80</t>
@@ -839,13 +836,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%AA%95</t>
   </si>
   <si>
-    <t>佛誕</t>
+    <t>佛诞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E6%88%90%E7%AB%8B%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>香港特別行政區成立紀念日</t>
+    <t>香港特别行政区成立纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
@@ -857,37 +854,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%A6%AE%E6%97%A5</t>
   </si>
   <si>
-    <t>節禮日</t>
+    <t>节礼日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%94%BF%E5%BA%9C%E5%81%87%E6%9C%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>澳門政府假期列表</t>
+    <t>澳门政府假期列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%91%A8%E5%85%AD</t>
   </si>
   <si>
-    <t>圣周六</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%BD%E6%80%9D%E7%AF%80</t>
   </si>
   <si>
-    <t>追思節</t>
+    <t>追思节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AF%8D%E7%84%A1%E5%8E%9F%E7%BD%AA%E7%9E%BB%E7%A6%AE</t>
   </si>
   <si>
-    <t>聖母無原罪瞻禮</t>
+    <t>圣母无原罪瞻礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%A4%9C</t>
@@ -899,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%AF%80%E6%97%A5%E8%88%87%E6%AD%B2%E6%99%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中華民國節日與歲時列表</t>
+    <t>中华民国节日与岁时列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%9B%86%E9%99%A4%E5%A4%95</t>
   </si>
   <si>
-    <t>農曆除夕</t>
+    <t>农历除夕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%9C%88%E5%88%9D%E4%B8%80</t>
@@ -929,13 +923,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E7%B4%80%E5%BF%B5%E6%97%A5_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>和平紀念日 (臺灣)</t>
+    <t>和平纪念日 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>婦女節</t>
+    <t>妇女节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E4%BE%B5%E7%95%A5%E6%97%A5</t>
@@ -947,127 +941,121 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD%E5%85%88%E7%83%88%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>革命先烈紀念日</t>
+    <t>革命先烈纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>兒童節</t>
+    <t>儿童节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E6%8E%83%E5%A2%93%E7%AF%80</t>
   </si>
   <si>
-    <t>民族掃墓節</t>
+    <t>民族扫墓节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%AF%80</t>
   </si>
   <si>
-    <t>勞動節</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%99%80%E8%AA%95%E8%BE%B0%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>佛陀誕辰紀念日</t>
+    <t>佛陀诞辰纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%9A%B4%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>解嚴紀念日</t>
+    <t>解严纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>軍人節</t>
+    <t>军人节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E5%AD%90%E8%AA%95%E8%BE%B0%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>孔子誕辰紀念日</t>
+    <t>孔子诞辰纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%85%B6%E6%97%A5_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國慶日 (中華民國)</t>
+    <t>国庆日 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%85%89%E5%BE%A9%E7%AF%80</t>
   </si>
   <si>
-    <t>臺灣光復節</t>
+    <t>台湾光复节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%86%B2%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>行憲紀念日</t>
+    <t>行宪纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E9%96%93%E4%BF%A1%E4%BB%B0</t>
   </si>
   <si>
-    <t>台灣民間信仰</t>
+    <t>台湾民间信仰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%85%83%E8%8A%82</t>
   </si>
   <si>
-    <t>三元节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%83%E5%AE%B5%E7%AF%80</t>
   </si>
   <si>
-    <t>台灣元宵節</t>
+    <t>台湾元宵节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%87%88%E6%9C%83</t>
   </si>
   <si>
-    <t>臺灣燈會</t>
+    <t>台湾灯会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E7%87%88%E7%AF%80</t>
   </si>
   <si>
-    <t>臺北燈節</t>
+    <t>台北灯节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%84%E7%87%88%E6%9C%83%E8%97%9D%E8%A1%93%E7%AF%80</t>
   </si>
   <si>
-    <t>高雄燈會藝術節</t>
+    <t>高雄灯会艺术节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%B0%E7%81%A3%E5%85%83%E5%AE%B5%E7%87%88%E6%9C%83</t>
   </si>
   <si>
-    <t>中台灣元宵燈會</t>
+    <t>中台湾元宵灯会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%BA%AA%E5%A4%A9%E7%87%88%E7%AF%80</t>
   </si>
   <si>
-    <t>平溪天燈節</t>
+    <t>平溪天灯节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E6%A0%97%F0%AA%B9%9A%E9%BE%8D</t>
   </si>
   <si>
-    <t>苗栗𪹚龍</t>
+    <t>苗栗𪹚龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E6%B0%B4%E8%9C%82%E7%82%AE</t>
   </si>
   <si>
-    <t>鹽水蜂炮</t>
+    <t>盐水蜂炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E6%9C%88</t>
@@ -1079,25 +1067,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E7%B1%A0%E4%B8%AD%E5%85%83%E7%A5%AD</t>
   </si>
   <si>
-    <t>雞籠中元祭</t>
+    <t>鸡笼中元祭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%B6%E5%AD%A4</t>
   </si>
   <si>
-    <t>搶孤</t>
+    <t>抢孤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%B8%AD%E5%85%83%E6%B3%95%E6%9C%83</t>
   </si>
   <si>
-    <t>台灣中元法會</t>
+    <t>台湾中元法会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A3%AB%E7%88%BA</t>
   </si>
   <si>
-    <t>大士爺</t>
+    <t>大士爷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%AE%98%E5%A4%A7%E5%B8%9D</t>
@@ -1109,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%96%87%E5%8C%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>台灣文化活動列表</t>
+    <t>台湾文化活动列表</t>
   </si>
 </sst>
 </file>
@@ -4525,7 +4513,7 @@
         <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4551,10 +4539,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4580,10 +4568,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4609,10 +4597,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4638,10 +4626,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -4667,10 +4655,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4696,10 +4684,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4725,10 +4713,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4754,10 +4742,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4783,10 +4771,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4812,10 +4800,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4841,10 +4829,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4870,10 +4858,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4899,10 +4887,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4928,10 +4916,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4986,10 +4974,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5015,10 +5003,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5131,10 +5119,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5160,10 +5148,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5189,10 +5177,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5218,10 +5206,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5247,10 +5235,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5276,10 +5264,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5305,10 +5293,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5334,10 +5322,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5363,10 +5351,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5392,10 +5380,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5421,10 +5409,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5450,10 +5438,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5508,10 +5496,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5537,10 +5525,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5566,10 +5554,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5595,10 +5583,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5624,10 +5612,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5682,10 +5670,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>238</v>
+      </c>
+      <c r="F146" t="s">
         <v>239</v>
-      </c>
-      <c r="F146" t="s">
-        <v>240</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5711,10 +5699,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>276</v>
+      </c>
+      <c r="F147" t="s">
         <v>277</v>
-      </c>
-      <c r="F147" t="s">
-        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5740,10 +5728,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>278</v>
+      </c>
+      <c r="F148" t="s">
         <v>279</v>
-      </c>
-      <c r="F148" t="s">
-        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5769,10 +5757,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>280</v>
+      </c>
+      <c r="F149" t="s">
         <v>281</v>
-      </c>
-      <c r="F149" t="s">
-        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5798,10 +5786,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>282</v>
+      </c>
+      <c r="F150" t="s">
         <v>283</v>
-      </c>
-      <c r="F150" t="s">
-        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5827,10 +5815,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5856,10 +5844,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>272</v>
+      </c>
+      <c r="F152" t="s">
         <v>273</v>
-      </c>
-      <c r="F152" t="s">
-        <v>274</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5914,10 +5902,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F154" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5943,10 +5931,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F155" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6001,10 +5989,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6059,10 +6047,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F159" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6088,10 +6076,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6117,10 +6105,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>240</v>
+      </c>
+      <c r="F161" t="s">
         <v>241</v>
-      </c>
-      <c r="F161" t="s">
-        <v>242</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6146,10 +6134,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6175,10 +6163,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F163" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6204,10 +6192,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F164" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6233,10 +6221,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6262,10 +6250,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F166" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6291,10 +6279,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6320,10 +6308,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6349,10 +6337,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6378,10 +6366,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6407,10 +6395,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6436,10 +6424,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
         <v>13</v>
@@ -6465,10 +6453,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6494,10 +6482,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6523,10 +6511,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6552,10 +6540,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6610,10 +6598,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F178" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6639,10 +6627,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F179" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6668,10 +6656,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F180" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6697,10 +6685,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F181" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6726,10 +6714,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F182" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6784,10 +6772,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F184" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6813,10 +6801,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F185" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6842,10 +6830,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F186" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6871,10 +6859,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F187" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6900,10 +6888,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F188" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6929,10 +6917,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F189" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6958,13 +6946,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F190" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -6987,10 +6975,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F191" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7045,10 +7033,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F193" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7074,10 +7062,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F194" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7103,10 +7091,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F195" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7132,10 +7120,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F196" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7161,10 +7149,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F197" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7190,10 +7178,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F198" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7219,10 +7207,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F199" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
